--- a/content/dadesref/entitats/Codis_Persona_Estat_Civil.xlsx
+++ b/content/dadesref/entitats/Codis_Persona_Estat_Civil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\06.Canvis_Canigo_Draft_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\09.Publicacions\21.20211117\02.Canigo\01.Draft\entitats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD01DDF8-A9E8-4025-9CAE-BAEC7B249ADC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D7CB13-B02B-4579-8882-609A29544C36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estat civil" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Codi</t>
   </si>
   <si>
-    <t xml:space="preserve">Descripció </t>
-  </si>
-  <si>
     <t>Solter/a</t>
   </si>
   <si>
@@ -45,12 +42,6 @@
     <t>Divorciat/da</t>
   </si>
   <si>
-    <t xml:space="preserve">Nom de la taula: </t>
-  </si>
-  <si>
-    <t>Codis_Persona_Estat_Civil</t>
-  </si>
-  <si>
     <t>Separat/da de fet</t>
   </si>
   <si>
@@ -97,6 +88,51 @@
   </si>
   <si>
     <t>09</t>
+  </si>
+  <si>
+    <t>Estat Civil</t>
+  </si>
+  <si>
+    <t>Identificador</t>
+  </si>
+  <si>
+    <t>SIN</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>WID</t>
+  </si>
+  <si>
+    <t>SEP</t>
+  </si>
+  <si>
+    <t>SEPF</t>
+  </si>
+  <si>
+    <t>DIV</t>
+  </si>
+  <si>
+    <t>REP</t>
+  </si>
+  <si>
+    <t>NREP</t>
+  </si>
+  <si>
+    <t>CSU</t>
+  </si>
+  <si>
+    <t>NRP</t>
+  </si>
+  <si>
+    <t>Nom entitat:</t>
+  </si>
+  <si>
+    <t>C99</t>
+  </si>
+  <si>
+    <t>Descripció</t>
   </si>
 </sst>
 </file>
@@ -187,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -200,12 +236,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Hoja2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <font>
         <strike val="0"/>
@@ -218,8 +255,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -270,6 +305,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -309,10 +359,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:B14" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codi" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descripció " dataDxfId="1" dataCellStyle="Normal_Hoja2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:C14" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Identificador" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descripció" dataDxfId="1" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="3" xr3:uid="{739F4C3B-BE62-433E-8B61-6C4D96636141}" name="Codi" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -581,119 +632,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="11.453125" style="2"/>
+    <col min="1" max="1" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>98</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>99</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -709,12 +796,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010005A3960399C2234EB92CC9686FF6F87F" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6b9fb4baab9ad9fbdda99e3f5c22fc21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3aff557-982a-455c-8bbc-92c71da94542" xmlns:ns3="857edd72-1fa1-43ec-b599-5660574b73e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="431e8fb1ae557487b3a709321472510d" ns2:_="" ns3:_="">
     <xsd:import namespace="f3aff557-982a-455c-8bbc-92c71da94542"/>
@@ -879,16 +975,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -904,14 +999,21 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5390625C-0141-444F-8095-DCA57013946D}"/>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5390625C-0141-444F-8095-DCA57013946D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f3aff557-982a-455c-8bbc-92c71da94542"/>
+    <ds:schemaRef ds:uri="857edd72-1fa1-43ec-b599-5660574b73e4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>